--- a/artfynd/A 24145-2020.xlsx
+++ b/artfynd/A 24145-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16818267</v>
+        <v>16818270</v>
       </c>
       <c r="B2" t="n">
-        <v>78569</v>
+        <v>77258</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>537139.3904424686</v>
+        <v>537274.6085842693</v>
       </c>
       <c r="R2" t="n">
-        <v>7083122.859588281</v>
+        <v>7083370.44085698</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16818268</v>
+        <v>16818267</v>
       </c>
       <c r="B3" t="n">
-        <v>81236</v>
+        <v>78569</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>537171.4939833247</v>
+        <v>537139.3904424686</v>
       </c>
       <c r="R3" t="n">
-        <v>7083132.938401985</v>
+        <v>7083122.859588281</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16818269</v>
+        <v>16818268</v>
       </c>
       <c r="B4" t="n">
-        <v>78569</v>
+        <v>81236</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +928,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>537220.7923393567</v>
+        <v>537171.4939833247</v>
       </c>
       <c r="R4" t="n">
-        <v>7083107.513950584</v>
+        <v>7083132.938401985</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16818270</v>
+        <v>16818269</v>
       </c>
       <c r="B5" t="n">
-        <v>77258</v>
+        <v>78569</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,21 +1044,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>537274.6085842693</v>
+        <v>537220.7923393567</v>
       </c>
       <c r="R5" t="n">
-        <v>7083370.44085698</v>
+        <v>7083107.513950584</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>

--- a/artfynd/A 24145-2020.xlsx
+++ b/artfynd/A 24145-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16818270</v>
+        <v>16818267</v>
       </c>
       <c r="B2" t="n">
-        <v>77258</v>
+        <v>78569</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>537274.6085842693</v>
+        <v>537139.3904424686</v>
       </c>
       <c r="R2" t="n">
-        <v>7083370.44085698</v>
+        <v>7083122.859588281</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16818267</v>
+        <v>16818268</v>
       </c>
       <c r="B3" t="n">
-        <v>78569</v>
+        <v>81236</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>537139.3904424686</v>
+        <v>537171.4939833247</v>
       </c>
       <c r="R3" t="n">
-        <v>7083122.859588281</v>
+        <v>7083132.938401985</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16818268</v>
+        <v>16818269</v>
       </c>
       <c r="B4" t="n">
-        <v>81236</v>
+        <v>78569</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +928,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>537171.4939833247</v>
+        <v>537220.7923393567</v>
       </c>
       <c r="R4" t="n">
-        <v>7083132.938401985</v>
+        <v>7083107.513950584</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16818269</v>
+        <v>16818270</v>
       </c>
       <c r="B5" t="n">
-        <v>78569</v>
+        <v>77258</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,21 +1044,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>537220.7923393567</v>
+        <v>537274.6085842693</v>
       </c>
       <c r="R5" t="n">
-        <v>7083107.513950584</v>
+        <v>7083370.44085698</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
